--- a/resultados/cotacoes rf.xlsx
+++ b/resultados/cotacoes rf.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1313,6 +1313,20 @@
         <v>1848.9</v>
       </c>
     </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2">
+        <v>44775</v>
+      </c>
+      <c r="B67">
+        <v>751.37</v>
+      </c>
+      <c r="C67">
+        <v>11889.68</v>
+      </c>
+      <c r="D67">
+        <v>1853.39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
